--- a/stock.xlsx
+++ b/stock.xlsx
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -503,10 +503,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -531,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -573,10 +573,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -615,10 +615,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -629,10 +629,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -671,10 +671,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
